--- a/TODO_Cheyette.xlsx
+++ b/TODO_Cheyette.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>poiunteur vers fonction shift</t>
   </si>
@@ -81,14 +81,32 @@
     <t>OK sauf pour S(t) / S(0) rajouter interpolation C1 ou C2</t>
   </si>
   <si>
-    <t>s</t>
+    <t>tester l'exactitude des flux entre approx (VanillaSwap) et MC (GenericSwap)</t>
+  </si>
+  <si>
+    <t>QUESTIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swaption 10Y 10Y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pour MC besoin de la vol sur 10Y 20Y </t>
+  </si>
+  <si>
+    <t>pas pour la formule d'approx / BLACK</t>
+  </si>
+  <si>
+    <t>findIndex() / finIndex2()</t>
+  </si>
+  <si>
+    <t>heritage entre MC cheyette et GenericSwap/swaption - enlever evauateLeg() en doublon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +114,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +133,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,11 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -440,8 +480,11 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -450,20 +493,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -471,15 +520,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -490,13 +542,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -504,7 +556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -515,17 +567,17 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -545,32 +597,49 @@
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TODO_Cheyette.xlsx
+++ b/TODO_Cheyette.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>poiunteur vers fonction shift</t>
   </si>
@@ -100,13 +100,50 @@
   </si>
   <si>
     <t>heritage entre MC cheyette et GenericSwap/swaption - enlever evauateLeg() en doublon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM </t>
+  </si>
+  <si>
+    <t>jouer avec sigma de la vol locale (sigma_r(t)) et observer les niveaux de vol implicite correspondants (sigma_S(t)) - vol de S(t)</t>
+  </si>
+  <si>
+    <t>les autres paramètres étant constants</t>
+  </si>
+  <si>
+    <t>normalement b_barre négatif (pente du smile). Dans le cas gaussien, ok pour b barre proche de 0</t>
+  </si>
+  <si>
+    <t>une fois qu'on a une idée de la vol implicite ATM et qu'on a fixé des paramètres cohérents (pour avoir sigma_imp = 20%), faire varier le strike pour afficher le smile</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 param : le strike K ATM, la pente b pour le skew </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ voir pour le shift</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) mettre toutes les sorties dans un unique fichier </t>
+  </si>
+  <si>
+    <t>2) remplir matrices avec prix approximé, prix MC, intervalles de confiance, et erreurs absolue/relative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +154,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -161,13 +206,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,180 +510,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="6">
+        <v>42184</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="H1" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="H2" t="s">
+      <c r="B20" s="2"/>
+      <c r="H20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H21" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H24" t="s">
         <v>14</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E25" t="s">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+    <row r="30" spans="1:13">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="5" t="s">
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TODO_Cheyette.xlsx
+++ b/TODO_Cheyette.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>poiunteur vers fonction shift</t>
   </si>
@@ -136,7 +136,31 @@
     <t xml:space="preserve">1) mettre toutes les sorties dans un unique fichier </t>
   </si>
   <si>
-    <t>2) remplir matrices avec prix approximé, prix MC, intervalles de confiance, et erreurs absolue/relative</t>
+    <t xml:space="preserve">comparer pour differentes swaptions (grille !!!!) + </t>
+  </si>
+  <si>
+    <t>pour différents strikes (pas qu'un ou 2)</t>
+  </si>
+  <si>
+    <t>FAIRE UN TEST COMPLET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pour les tests avec strike ATM </t>
+  </si>
+  <si>
+    <t>strikes negatifs //swaption : decomposer en espérance du sous jacent + K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          et erreurs absolue/relative</t>
+  </si>
+  <si>
+    <t>2) remplir matrices avec prix approximé, prix MC, intervalles de confiance</t>
+  </si>
+  <si>
+    <t>MC sous la mesure spot</t>
+  </si>
+  <si>
+    <t>pour swap rate 1st derivative en t = 0, voir si on a besoin d'une courbe C1 pour la dérivée</t>
   </si>
 </sst>
 </file>
@@ -168,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +217,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -206,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -216,6 +252,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,228 +548,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="6">
         <v>42184</v>
       </c>
       <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2" t="s">
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="H23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
         <v>10</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
         <v>15</v>
       </c>
-      <c r="H35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="2" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="5" t="s">
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TODO_Cheyette.xlsx
+++ b/TODO_Cheyette.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>poiunteur vers fonction shift</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>pour swap rate 1st derivative en t = 0, voir si on a besoin d'une courbe C1 pour la dérivée</t>
+  </si>
+  <si>
+    <t>remplacement de b_barre * sqrt(integrale) par sqrt(integrale * b_barre * b_barre)</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +232,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -242,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -254,6 +263,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +561,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -668,10 +678,15 @@
       <c r="B18" s="10"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3"/>

--- a/TODO_Cheyette.xlsx
+++ b/TODO_Cheyette.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>poiunteur vers fonction shift</t>
   </si>
@@ -96,9 +96,6 @@
     <t>pas pour la formule d'approx / BLACK</t>
   </si>
   <si>
-    <t>findIndex() / finIndex2()</t>
-  </si>
-  <si>
     <t>heritage entre MC cheyette et GenericSwap/swaption - enlever evauateLeg() en doublon</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
   </si>
   <si>
     <t>les autres paramètres étant constants</t>
-  </si>
-  <si>
-    <t>normalement b_barre négatif (pente du smile). Dans le cas gaussien, ok pour b barre proche de 0</t>
   </si>
   <si>
     <t>une fois qu'on a une idée de la vol implicite ATM et qu'on a fixé des paramètres cohérents (pour avoir sigma_imp = 20%), faire varier le strike pour afficher le smile</t>
@@ -164,6 +158,90 @@
   </si>
   <si>
     <t>remplacement de b_barre * sqrt(integrale) par sqrt(integrale * b_barre * b_barre)</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>partie tres itm otm : convexite de la vol</t>
+  </si>
+  <si>
+    <t>recuperer données de bloom : sur plusieurs strikes</t>
+  </si>
+  <si>
+    <t>1) S(t) / S(0) : voir pour le calcul de y barre</t>
+  </si>
+  <si>
+    <t>2) pour r(t) / r(0)</t>
+  </si>
+  <si>
+    <t>3) vol atm/skew atm</t>
+  </si>
+  <si>
+    <t>tester parametre dans [-1 ; 1]</t>
+  </si>
+  <si>
+    <t>modifs : swapRate(t, x_t) à swapRate(t, x_t, y_t) pour Numerator et Denominator</t>
+  </si>
+  <si>
+    <t>à faire aussi peut etre pour swapRate1st derivative et ZC(t, x_t, y_t)</t>
+  </si>
+  <si>
+    <t>quadratic vol</t>
+  </si>
+  <si>
+    <t>- faire calcul explicite de y_barre</t>
+  </si>
+  <si>
+    <t>findIndex() / findIndex2()</t>
+  </si>
+  <si>
+    <t>ZC / ZC 1st derivative : model vs calcul sur la courbe</t>
+  </si>
+  <si>
+    <t>Displaced Diffusion</t>
+  </si>
+  <si>
+    <t>1) recalibrer modèle avec k = 1% ou 2%</t>
+  </si>
+  <si>
+    <t>2) avec les paramètres calibrés du marché, vérifier précision d'approximation : tracer prix approx vs MC</t>
+  </si>
+  <si>
+    <t>pour 1k, 2k, …1M de simulations</t>
+  </si>
+  <si>
+    <t>3) tracer skew marché très ITM / OTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests : </t>
+  </si>
+  <si>
+    <t>dans sigma_r_t_1st_deriv tester en renvoyant 1 plutôt que 0</t>
+  </si>
+  <si>
+    <t>S0^{-1}(S0)</t>
+  </si>
+  <si>
+    <t>commenter ZC et dérivées sur courbe et voir résultat approxim</t>
+  </si>
+  <si>
+    <t>Questions Yuan</t>
+  </si>
+  <si>
+    <t>- vol Bachelier pourquoi plus stable ? À faire</t>
+  </si>
+  <si>
+    <t>(- verification de Cheyette avec HW)</t>
+  </si>
+  <si>
+    <t>- avec paramétrisation r(t) / r(0) et m(t) = 1, pas vraiment modèle log-normal</t>
+  </si>
+  <si>
+    <t>envoyer fichier réduit</t>
+  </si>
+  <si>
+    <t>detail oriented + tjs affronter le probleme</t>
   </si>
 </sst>
 </file>
@@ -195,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,18 +283,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,6 +304,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -251,19 +335,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,310 +646,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J9" sqref="J9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="6">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
+        <v>41840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4">
+        <v>42201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>-50</v>
+      </c>
+      <c r="B35">
+        <v>-100</v>
+      </c>
+      <c r="C35">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="4">
         <v>42184</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="L38" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="L1" t="s">
+    </row>
+    <row r="39" spans="1:12" ht="15.75">
+      <c r="A39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75">
+      <c r="A40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
-      <c r="A2" s="7" t="s">
+    <row r="41" spans="1:12" ht="15.75">
+      <c r="A41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75">
+      <c r="A42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="L42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75">
-      <c r="A3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="H50" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="H58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75">
-      <c r="A5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="8"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" t="s">
+      <c r="M58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="H59" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="H22" t="s">
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
         <v>14</v>
       </c>
-      <c r="M22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="H23" t="s">
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="M63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" t="s">
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
         <v>14</v>
       </c>
-      <c r="M27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" t="s">
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" t="s">
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="3"/>
+      <c r="H82" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
